--- a/target/classes/getShortUrl.xlsx
+++ b/target/classes/getShortUrl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="2400" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="1480" yWindow="9280" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="singlesend" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>【测试签名5】您的验证码是1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 查询验证码类短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,35 +46,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subAccountIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统账号点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销账号点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-23 19:43:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subAccountIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询活动链接统计列表</t>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-20 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-20 00:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,14 +1340,16 @@
   <dimension ref="A1:IT3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="32.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="15" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="5" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.1640625" style="1" customWidth="1" collapsed="1"/>
     <col min="9" max="254" width="10.83203125" style="1" customWidth="1" collapsed="1"/>
@@ -1328,61 +1358,81 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
